--- a/biology/Médecine/Héliothérapie/Héliothérapie.xlsx
+++ b/biology/Médecine/Héliothérapie/Héliothérapie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9lioth%C3%A9rapie</t>
+          <t>Héliothérapie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'héliothérapie ou héliose est une cure solaire, un traitement médical par exposition au rayonnement solaire[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'héliothérapie ou héliose est une cure solaire, un traitement médical par exposition au rayonnement solaire.
 L'héliothérapie est utilisée :
 Par la médecine dans certaines indications précises comme le rachitisme (carence en vitamine D), car les rayonnements UV du soleil sont nécessaires à la production de vitamine D ;
 Par la médecine non conventionnelle dans un grand nombre d'indications.
-L'héliothérapie a été utilisée durant la Première Guerre mondiale pour les blessures de guerre[2].
-L'héliothérapie est, depuis la fin du XIXe, d'un usage bénéfique dans le traitement de la tuberculose[3].
+L'héliothérapie a été utilisée durant la Première Guerre mondiale pour les blessures de guerre.
+L'héliothérapie est, depuis la fin du XIXe, d'un usage bénéfique dans le traitement de la tuberculose.
 </t>
         </is>
       </c>
